--- a/macfit_gyms_cleaned.xlsx
+++ b/macfit_gyms_cleaned.xlsx
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
